--- a/reports/raw-views/assets/tables/meso_category_bias.xlsx
+++ b/reports/raw-views/assets/tables/meso_category_bias.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08422192486506962</v>
+        <v>-0.08671325966487606</v>
       </c>
       <c r="C2" t="n">
-        <v>4.323392788039924</v>
+        <v>3.987593189047669</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.989536835227256</v>
+        <v>-6.650134709794301</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.947807884156945</v>
+        <v>-6.627930525235978</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.483908320187582</v>
+        <v>1.265342662830762</v>
       </c>
       <c r="C3" t="n">
-        <v>2.348213465176081</v>
+        <v>1.957417104250754</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.225804391751823</v>
+        <v>-2.643620611784112</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.90761325745549</v>
+        <v>-6.33376009333355</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9901222703979992</v>
+        <v>0.8663547429634153</v>
       </c>
       <c r="C4" t="n">
-        <v>2.588849771427291</v>
+        <v>2.362193171803985</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.636912654862871</v>
+        <v>-4.557644810472275</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.378785130584262</v>
+        <v>-5.030313185036145</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3774254158607041</v>
+        <v>0.2147805530085035</v>
       </c>
       <c r="C5" t="n">
-        <v>1.770005290495426</v>
+        <v>1.471414819249782</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.041434029789984</v>
+        <v>-1.623195302797334</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.279935347941307</v>
+        <v>-3.742836356467645</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.488341141006528</v>
+        <v>1.44543401503942</v>
       </c>
       <c r="C6" t="n">
-        <v>1.226872070661465</v>
+        <v>1.153204681192293</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.974855327549612</v>
+        <v>-3.308428478809178</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.581082458789147</v>
+        <v>-3.289841908814284</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4118400947220064</v>
+        <v>0.3060084338911121</v>
       </c>
       <c r="C7" t="n">
-        <v>1.594662208359608</v>
+        <v>1.398620750262873</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.806437263912926</v>
+        <v>-2.528762197866694</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.010721582482198</v>
+        <v>-2.759868412839082</v>
       </c>
     </row>
     <row r="8">
@@ -581,35 +581,35 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.558455276873661</v>
+        <v>2.476480745930567</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.87434745317672</v>
+        <v>-1.004457874634521</v>
       </c>
       <c r="D8" t="n">
-        <v>1.045500620886526</v>
+        <v>1.336979290858656</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.809218943414932</v>
+        <v>-2.603135590561373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>família</t>
+          <t>estruturas sociais e econômicas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.314995906077884</v>
+        <v>0.5889691512491492</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.102581729873965</v>
+        <v>1.355391004008771</v>
       </c>
       <c r="D9" t="n">
-        <v>8.670282235462377</v>
+        <v>-3.08186292015781</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.49327584568025</v>
+        <v>-2.590608708207778</v>
       </c>
     </row>
     <row r="10">
@@ -619,92 +619,92 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.333136766100997</v>
+        <v>1.26506595475886</v>
       </c>
       <c r="C10" t="n">
-        <v>0.249260130084591</v>
+        <v>0.1416705975399979</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.76280860178804</v>
+        <v>-0.5609731936916506</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.40301419736829</v>
+        <v>-2.292379325518055</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>estruturas sociais e econômicas</t>
+          <t>família</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6077308200551517</v>
+        <v>-3.232767059716722</v>
       </c>
       <c r="C11" t="n">
-        <v>1.389326085870564</v>
+        <v>0.08952967999095393</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.219108600027785</v>
+        <v>7.904587170393286</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.287455772317005</v>
+        <v>-2.159355282519024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>vida rural, vida no campo</t>
+          <t>gênero e sexualidade</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1697549111058191</v>
+        <v>-1.794620843912653</v>
       </c>
       <c r="C12" t="n">
-        <v>1.028798884351399</v>
+        <v>2.510081912336033</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7430430058673789</v>
+        <v>-2.961694015273024</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.241175948057143</v>
+        <v>-2.131263919694551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>nacionalidade e nacionalismo</t>
+          <t>vida rural, vida no campo</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.745791823518922</v>
+        <v>-0.2328921378020009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4552949317647075</v>
+        <v>0.906188594987037</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.484424806885294</v>
+        <v>-0.5182084830224819</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.06466714851694</v>
+        <v>-2.102033170279678</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>poesia e ensaio</t>
+          <t>nacionalidade e nacionalismo</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8161967646431402</v>
+        <v>1.673256289713538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5442160670771781</v>
+        <v>0.3433577954168633</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.149102213079355</v>
+        <v>-2.363784615723356</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.03769429183851</v>
+        <v>-1.931424510879601</v>
       </c>
     </row>
     <row r="15">
@@ -714,168 +714,168 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1033982963359314</v>
+        <v>-0.09865352015420724</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3094054462416753</v>
+        <v>0.3180583477723646</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8015447996720034</v>
+        <v>0.8462121018510294</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.612009079487637</v>
+        <v>-1.737545538037684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>política</t>
+          <t>distopia, ficção científica e futuros imaginados</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.182132715075813</v>
+        <v>4.032814949354573</v>
       </c>
       <c r="C16" t="n">
-        <v>1.537632758164453</v>
+        <v>-1.228380860505598</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5538131914765927</v>
+        <v>-2.010011465820939</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.591259853529614</v>
+        <v>-1.413073224251723</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>gênero e sexualidade</t>
+          <t>política</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.015901686142425</v>
+        <v>-2.114553349931825</v>
       </c>
       <c r="C17" t="n">
-        <v>2.037588600524336</v>
+        <v>1.678864341440947</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.768931498074457</v>
+        <v>-0.3226874853552322</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.14969665736352</v>
+        <v>-1.371564699918195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>questão agrária e territorial</t>
+          <t>poesia e ensaio</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.7850467596186859</v>
+        <v>0.6395591056517784</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4387123652515108</v>
+        <v>0.2322421338701065</v>
       </c>
       <c r="D18" t="n">
-        <v>1.127157992681906</v>
+        <v>-0.6312503708577855</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.139810078097342</v>
+        <v>-1.35240822690325</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>memória e patrimônio</t>
+          <t>desinformação, populismo e polarização</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1454748374172062</v>
+        <v>0.003459243809323817</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8325710401166153</v>
+        <v>0.7251421314193658</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.821731385030831</v>
+        <v>-1.234409691415849</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.089460626023909</v>
+        <v>-1.216243992744902</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>desinformação, populismo e polarização</t>
+          <t>violência</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02304309756263481</v>
+        <v>0.336598511868042</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7614617872163353</v>
+        <v>0.1823141054070368</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.535805712309362</v>
+        <v>-0.1115436180749076</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9317057397675503</v>
+        <v>-1.136057071210128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>distopia, ficção científica e futuros imaginados</t>
+          <t>memória e patrimônio</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.982485511322528</v>
+        <v>0.03751443314315746</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.293726206179612</v>
+        <v>0.635689554350033</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.033568920839405</v>
+        <v>-1.299344419500882</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.905057077121739</v>
+        <v>-0.9130596725497483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>violência</t>
+          <t>tecnologia, inovação e sociedade</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.21787315490597</v>
+        <v>-0.30671195187988</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02655159813985019</v>
+        <v>0.1506116250340506</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4792502914590767</v>
+        <v>0.9754483592135256</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.7850281064495112</v>
+        <v>-0.9109487337521832</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>tecnologia, inovação e sociedade</t>
+          <t>questão agrária e territorial</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.3635810596041527</v>
+        <v>-0.8643779686337749</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04495621858200036</v>
+        <v>0.283463408537552</v>
       </c>
       <c r="D23" t="n">
-        <v>1.125536034673736</v>
+        <v>1.530871392945483</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.6288969165184555</v>
+        <v>-0.8689893294072423</v>
       </c>
     </row>
     <row r="24">
@@ -885,92 +885,92 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.148890124580511</v>
+        <v>-1.174053302241971</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7913343020885359</v>
+        <v>0.7265157921018225</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1190484333240343</v>
+        <v>0.2601699362852061</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.6059218379569957</v>
+        <v>-0.5080601675090328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>pandemia</t>
+          <t>educação e socialização</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.135067609604416</v>
+        <v>0.6530256318040129</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.322495975809414</v>
+        <v>-0.1689308550567603</v>
       </c>
       <c r="D25" t="n">
-        <v>2.732415886888318</v>
+        <v>-0.3447845900911859</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5390161326922982</v>
+        <v>-0.3106596862147576</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>mobilidade</t>
+          <t>pandemia</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.467852054461975</v>
+        <v>0.9884617807957636</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6587859878551353</v>
+        <v>-1.562865413229943</v>
       </c>
       <c r="D26" t="n">
-        <v>3.117757280366337</v>
+        <v>3.439107497960149</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1963858871230823</v>
+        <v>-0.03114723011075469</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>sonoridade e paisagem sonora</t>
+          <t>mobilidade</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7544011036859263</v>
+        <v>-0.54462359778988</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1734367768839504</v>
+        <v>-0.7979905197469427</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.8141667768446583</v>
+        <v>3.603709064852528</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03094342445435733</v>
+        <v>0.1017489805363181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>educação e socialização</t>
+          <t>sonoridade e paisagem sonora</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4716958457439981</v>
+        <v>0.657858089643153</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.4828973065463835</v>
+        <v>-0.3364265371722031</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4056613191708099</v>
+        <v>-0.4823759363756056</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2969094375188824</v>
+        <v>0.3838268459731174</v>
       </c>
     </row>
     <row r="29">
@@ -980,92 +980,92 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.130931742689089</v>
+        <v>-1.097550062859834</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09020771689863923</v>
+        <v>0.1673253246593815</v>
       </c>
       <c r="D29" t="n">
-        <v>1.182888332092912</v>
+        <v>0.7414466546828354</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5346020422273157</v>
+        <v>0.7532989000489488</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>alimentação e tratamentos tradicionais</t>
+          <t>territorialidade e colonialismo</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.6021771188959406</v>
+        <v>0.6068606657190214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4233211478791807</v>
+        <v>-1.30107740935588</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.9127163030631782</v>
+        <v>2.456754333556304</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6360262330963508</v>
+        <v>0.7876087443358792</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>pessoas com deficiência</t>
+          <t>alimentação e tratamentos tradicionais</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.504443759741256</v>
+        <v>-0.6789962442763704</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.604308494911341</v>
+        <v>0.274947376382655</v>
       </c>
       <c r="D31" t="n">
-        <v>1.212228958718377</v>
+        <v>-0.6285055794253361</v>
       </c>
       <c r="E31" t="n">
-        <v>1.234227623022089</v>
+        <v>0.9780637733247727</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>territorialidade e colonialismo</t>
+          <t>raça e racismo</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4537497483740476</v>
+        <v>-1.644155044596602</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.545050495210643</v>
+        <v>-0.2500033643228159</v>
       </c>
       <c r="D32" t="n">
-        <v>2.824779991128043</v>
+        <v>2.638791089415573</v>
       </c>
       <c r="E32" t="n">
-        <v>1.292757082610341</v>
+        <v>1.285627346229134</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>raça e racismo</t>
+          <t>pessoas com deficiência</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.772133352005579</v>
+        <v>1.464165188471019</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5681187367800564</v>
+        <v>-1.647121534755042</v>
       </c>
       <c r="D33" t="n">
-        <v>3.398871651658663</v>
+        <v>1.396492849795139</v>
       </c>
       <c r="E33" t="n">
-        <v>1.552511878234694</v>
+        <v>1.408992354145778</v>
       </c>
     </row>
     <row r="34">
@@ -1075,35 +1075,35 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3284870921270099</v>
+        <v>0.306908989172916</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5422501075524434</v>
+        <v>-0.579624721024082</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.4914683016713003</v>
+        <v>-0.4204713586112711</v>
       </c>
       <c r="E34" t="n">
-        <v>1.644203991312217</v>
+        <v>1.802214587302508</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ambiental</t>
+          <t>maternidade</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1053097290640415</v>
+        <v>-0.1801812774922617</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.336260438051769</v>
+        <v>-0.5975923142142956</v>
       </c>
       <c r="D35" t="n">
-        <v>2.676216288952076</v>
+        <v>0.3656195921450998</v>
       </c>
       <c r="E35" t="n">
-        <v>1.769517289579025</v>
+        <v>1.989339573138265</v>
       </c>
     </row>
     <row r="36">
@@ -1113,54 +1113,54 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.7796021628725436</v>
+        <v>0.8996540907221953</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.870904998182447</v>
+        <v>-1.674291009308457</v>
       </c>
       <c r="D36" t="n">
-        <v>2.608310671102494</v>
+        <v>1.767110042445613</v>
       </c>
       <c r="E36" t="n">
-        <v>1.972807419250424</v>
+        <v>2.189515870340706</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>crises e desastres ambientais e sociais</t>
+          <t>religião, espiritualidade e cosmologias</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1854504156912234</v>
+        <v>-0.4150204948944516</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.109634364608561</v>
+        <v>-0.6327688170384438</v>
       </c>
       <c r="D37" t="n">
-        <v>1.425307688977333</v>
+        <v>0.7075669737000131</v>
       </c>
       <c r="E37" t="n">
-        <v>2.445677991304664</v>
+        <v>2.206248097314158</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>saudade, luto ou perda</t>
+          <t>ambiental</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.9481293053668</v>
+        <v>-0.2141817334953964</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.381134138192387</v>
+        <v>-1.526066821794413</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.535805712309362</v>
+        <v>3.269868792753759</v>
       </c>
       <c r="E38" t="n">
-        <v>2.495096251528445</v>
+        <v>2.274042211884813</v>
       </c>
     </row>
     <row r="39">
@@ -1170,111 +1170,111 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8049201689764837</v>
+        <v>0.8394204789531036</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.114003020734687</v>
+        <v>-1.065257184346216</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4563581515315891</v>
+        <v>-0.2799859896477954</v>
       </c>
       <c r="E39" t="n">
-        <v>2.589683359512828</v>
+        <v>2.300367439809822</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>direitos humanos</t>
+          <t>violências e preconceitos de gênero</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.5549864126110104</v>
+        <v>-1.140965811655277</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.5793343122697128</v>
+        <v>0.162513281035833</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2436746904551148</v>
+        <v>-0.8378317108637048</v>
       </c>
       <c r="E40" t="n">
-        <v>2.595919366059783</v>
+        <v>2.435687958705589</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>religião, espiritualidade e cosmologias</t>
+          <t>saudade, luto ou perda</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.5780921734783629</v>
+        <v>1.887103886674322</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.9272868145948289</v>
+        <v>-1.4701655795871</v>
       </c>
       <c r="D41" t="n">
-        <v>1.279193343018372</v>
+        <v>-1.248903672666485</v>
       </c>
       <c r="E41" t="n">
-        <v>2.708320413636612</v>
+        <v>2.671144386748706</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>violências e preconceitos de gênero</t>
+          <t>moradia e habitação</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.500354454936089</v>
+        <v>-1.518569550488702</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5792260467218361</v>
+        <v>-2.958953561051473</v>
       </c>
       <c r="D42" t="n">
-        <v>1.314271812956122</v>
+        <v>10.05650120851277</v>
       </c>
       <c r="E42" t="n">
-        <v>3.201373920623636</v>
+        <v>2.753306088439786</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>moradia e habitação</t>
+          <t>crises e desastres ambientais e sociais</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.670517385242533</v>
+        <v>-0.2596433922561583</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.22531051837134</v>
+        <v>-1.237627908048992</v>
       </c>
       <c r="D43" t="n">
-        <v>9.953902343233288</v>
+        <v>1.806425111619174</v>
       </c>
       <c r="E43" t="n">
-        <v>3.276888554496928</v>
+        <v>2.853952510141601</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>maternidade</t>
+          <t>direitos humanos</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.4701773499740251</v>
+        <v>-0.5889832084098315</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.101560139522578</v>
+        <v>-0.6418142331413879</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7339306784472727</v>
+        <v>0.2351070225803011</v>
       </c>
       <c r="E44" t="n">
-        <v>3.62221603217427</v>
+        <v>3.037686359834469</v>
       </c>
     </row>
     <row r="45">
@@ -1284,54 +1284,54 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-2.000855609473701</v>
+        <v>-1.951319644673254</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4319459479774708</v>
+        <v>0.5381099314946762</v>
       </c>
       <c r="D45" t="n">
-        <v>-2.047672315643262</v>
+        <v>-1.980925567242882</v>
       </c>
       <c r="E45" t="n">
-        <v>4.239966016376703</v>
+        <v>3.837048410058943</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>solidão</t>
+          <t>biografia</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.42114985954085</v>
+        <v>-0.1307284400838844</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.85620902726779</v>
+        <v>-1.491706855660136</v>
       </c>
       <c r="D46" t="n">
-        <v>4.852559745700925</v>
+        <v>-1.723967114376707</v>
       </c>
       <c r="E46" t="n">
-        <v>6.784317550798024</v>
+        <v>7.011799776735748</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>mulher, feminino e feminismo</t>
+          <t>solidão</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1.581472791596228</v>
+        <v>-1.463650198192873</v>
       </c>
       <c r="C47" t="n">
-        <v>-3.53844618215588</v>
+        <v>-2.930504827727594</v>
       </c>
       <c r="D47" t="n">
-        <v>6.030745576421626</v>
+        <v>5.313745162880253</v>
       </c>
       <c r="E47" t="n">
-        <v>8.06674087855432</v>
+        <v>7.312712619449605</v>
       </c>
     </row>
     <row r="48">
@@ -1341,54 +1341,54 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.43642029993036</v>
+        <v>-2.372092927874691</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.758213361533772</v>
+        <v>-1.625860500957157</v>
       </c>
       <c r="D48" t="n">
-        <v>1.823635381533163</v>
+        <v>2.08835681934992</v>
       </c>
       <c r="E48" t="n">
-        <v>8.126492578871176</v>
+        <v>7.850907350069113</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>resistência e luta</t>
+          <t>mulher, feminino e feminismo</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.104865579379802</v>
+        <v>-1.345888291968431</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.931403934559822</v>
+        <v>-3.133016099018707</v>
       </c>
       <c r="D49" t="n">
-        <v>4.8420260678008</v>
+        <v>4.933491104990471</v>
       </c>
       <c r="E49" t="n">
-        <v>8.252510073702059</v>
+        <v>8.156716340786859</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>biografia</t>
+          <t>resistência e luta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.3888026305715804</v>
+        <v>-2.142224056928094</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.905250990449367</v>
+        <v>-3.001834732383529</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.900392356349377</v>
+        <v>5.454175556631077</v>
       </c>
       <c r="E50" t="n">
-        <v>8.698304521426541</v>
+        <v>8.687603048609532</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-3.55991358639154</v>
+        <v>-3.086926411141425</v>
       </c>
       <c r="C51" t="n">
-        <v>-5.135994130274036</v>
+        <v>-4.196028148474826</v>
       </c>
       <c r="D51" t="n">
-        <v>6.091146779010282</v>
+        <v>4.609832840981095</v>
       </c>
       <c r="E51" t="n">
-        <v>16.63789223293386</v>
+        <v>15.34170193867449</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2.131639627294633</v>
+        <v>-1.891097508517258</v>
       </c>
       <c r="C52" t="n">
-        <v>-6.147738365301628</v>
+        <v>-5.777095969039737</v>
       </c>
       <c r="D52" t="n">
-        <v>4.298170690276598</v>
+        <v>5.200954688781274</v>
       </c>
       <c r="E52" t="n">
-        <v>19.13550438190554</v>
+        <v>17.83991940669465</v>
       </c>
     </row>
   </sheetData>
